--- a/Assets/StreamingAssets/CardSkillDes.xlsx
+++ b/Assets/StreamingAssets/CardSkillDes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E4FDA-7C80-4964-B9E1-324AC361F264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1E9378-BAC5-42C9-8A3F-5F126823B782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Assets/StreamingAssets/CardSkillDes.xlsx
+++ b/Assets/StreamingAssets/CardSkillDes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1E9378-BAC5-42C9-8A3F-5F126823B782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A235E09-6DB9-4104-8407-14460649C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
-    <t>获得2点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得4点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复4点生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,54 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合获得2点护甲，持续3个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合获得4点护甲，持续3个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合恢复4点生命值，持续3个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合恢复和叠甲效果翻倍，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合获得3点护甲，恢复3点生命值，持续3个回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得3点护甲，50%概率翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得6点护甲，50%概率翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复6点生命值，50%概率翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得20点护甲，从下回合开始每回合减少5,持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2点护甲，25%概率使当前（获得2点护甲后）护甲翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复已损失生命值的50%，有20%的概率恢复全部血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成4点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扣除敌方12点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，获得8点生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害，伤害值等于护甲值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成已损失生命值的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,18 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免疫本回合伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下回合开始之前，血量不会低于1点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有获得护甲的效果转变为造成双倍伤害，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成3点伤害，在敌方回合开始时造成3点伤害，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从当前回合开始，在三个回合内，玩家造成的伤害量总和超过30点，则在第四个回合开始对敌人造成15点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下两个回合，1的概率变为75%，0的概率变为25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成4点伤害，有50%概率伤害翻倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,18 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成16点伤害，敌方无护甲时伤害翻倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下回合开始之前，当你受到伤害时，敌方也会受到该伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下次造成伤害翻3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从当前回合开始，每回合造成4点伤害，有50%概率伤害翻倍，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,18 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从当前回合开始，每回合扣除12点护甲值，有50%概率护甲值翻倍，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害，从下一次对敌方造成伤害开始，有一定几率将伤害翻倍，或是附加吸血效果，持续3回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">造成10点伤害，下一回合使用该技能时伤害提升10点，最高30点伤害，如果有一回合中断使用，则伤害重置为10点。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +135,110 @@
   </si>
   <si>
     <t>只做了苦修和传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得2点SAN值 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3点SAN值，50%概率翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4点SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得6点SAN值，50%概率翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除敌方12点SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，恢复8点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有获得SAN值的效果转变为造成双倍伤害，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下两个回合，刚的概率变为75%，柔的概率变为25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从当前回合开始，每回合扣除敌方12点SAN值，有50%概率SAN值翻倍，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成16点伤害，敌方无SAN值时伤害翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束获得2点SAN值，持续3个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束获得4点SAN值，持续3个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束恢复4点生命值，持续3个回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值和SAN值回复效果翻倍，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束回复3点SAN值和生命值，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先获得2点SAN值，25%概率使已有SAN值翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20点临时SAN值，下两回合开始时每次减少5点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复已损失生命值的50%，20%的概率恢复全部生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始前免疫伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始之前生命值不会低于1点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成你当前SAN值的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从当前回合开始，在三个回合内，玩家造成的伤害总和超过30点，则在第四个回合开始对敌人造成15点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次造成的伤害翻3倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，从下一次对敌方造成伤害开始，有一定几率将伤害翻倍或附加吸血效果，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">造成10点伤害，下回合使用该技能时伤害提升10点，最高30点。若中断使用，则伤害重置为10点。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,213 +581,213 @@
   <sheetData>
     <row r="1" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
